--- a/xlsx/Jaguar_intext.xlsx
+++ b/xlsx/Jaguar_intext.xlsx
@@ -29,7 +29,7 @@
     <t>美洲豹</t>
   </si>
   <si>
-    <t>政策_政策_混合動力車輛_Jaguar</t>
+    <t>政策_政策_混合动力车辆_Jaguar</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E8%B1%B9</t>
